--- a/Diccionario_Prensa.xlsx
+++ b/Diccionario_Prensa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emper\Documents\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E25976A-7AEE-45ED-978E-7C6D0D80A706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1543FDE0-E1FC-49BA-AF29-C0716F47FBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6C9627BE-EA01-46B4-8D16-2BEE81F4B464}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>Nombre</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>∞</t>
-  </si>
-  <si>
     <t>La Compleja</t>
   </si>
   <si>
@@ -198,6 +195,12 @@
   </si>
   <si>
     <t>XPATH para obtener la fecha de la noticia de Ejemplo</t>
+  </si>
+  <si>
+    <t>VarChar</t>
+  </si>
+  <si>
+    <t>TinyText</t>
   </si>
 </sst>
 </file>
@@ -612,7 +615,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2">
+        <v>255</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -670,19 +673,19 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -690,7 +693,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
@@ -702,7 +705,7 @@
         <v>35131</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -713,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="E5" s="4">
+        <v>255</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -736,19 +739,19 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="E6" s="3">
+        <v>255</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -759,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
+      <c r="E7" s="5">
+        <v>255</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -779,19 +782,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>26</v>
+      <c r="E8" s="5">
+        <v>2147483647</v>
       </c>
       <c r="F8" s="5">
         <v>37892</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -799,7 +802,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>25</v>
@@ -811,7 +814,7 @@
         <v>38162</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -822,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="E10" s="7">
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -842,19 +845,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1000</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -862,19 +865,19 @@
         <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1000</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -882,17 +885,17 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="E13" s="7">
+        <v>255</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -903,19 +906,19 @@
         <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>53</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1000</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -923,17 +926,17 @@
         <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="E15" s="6">
+        <v>255</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -941,17 +944,17 @@
         <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="E16" s="6">
+        <v>255</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -959,17 +962,17 @@
         <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="E17" s="6">
+        <v>255</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Diccionario_Prensa.xlsx
+++ b/Diccionario_Prensa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emper\Documents\BD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emper\Documents\BD\INFO133-equipo19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1543FDE0-E1FC-49BA-AF29-C0716F47FBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49BAFAD-8059-489F-997A-CF072E45C580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6C9627BE-EA01-46B4-8D16-2BEE81F4B464}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>Nombre</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>XPATH_T</t>
-  </si>
-  <si>
-    <t>String</t>
   </si>
   <si>
     <t>Int</t>
@@ -614,9 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1070D688-83B1-454D-98C2-89BCA9D1C56D}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -653,19 +648,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2">
         <v>255</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -673,19 +668,19 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2">
         <v>1000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -693,10 +688,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="9">
         <v>2958465</v>
@@ -705,7 +700,7 @@
         <v>35131</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -716,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="4">
         <v>255</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -739,19 +734,19 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3">
         <v>255</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -762,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E7" s="5">
         <v>255</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -782,10 +777,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5">
         <v>2147483647</v>
@@ -794,7 +789,7 @@
         <v>37892</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -802,10 +797,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="8">
         <v>2958465</v>
@@ -814,7 +809,7 @@
         <v>38162</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -825,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="7">
         <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -845,19 +840,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="7">
         <v>1000</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -865,19 +860,19 @@
         <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="7">
         <v>1000</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -885,17 +880,17 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="7">
         <v>255</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -906,19 +901,19 @@
         <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="6">
         <v>1000</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -926,17 +921,17 @@
         <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="6">
         <v>255</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -944,17 +939,17 @@
         <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="6">
         <v>255</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -962,17 +957,17 @@
         <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="6">
         <v>255</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
